--- a/Test.xlsx
+++ b/Test.xlsx
@@ -6,7 +6,8 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Folders" sheetId="2" r:id="rId2"/>
+    <x:sheet name="SpecificFolderAsset" sheetId="2" r:id="rId2"/>
+    <x:sheet name="AllFolderAsset" sheetId="5" r:id="rId5"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -14,18 +15,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <x:si>
-    <x:t>Shared</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4765339</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5002486</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <x:si>
+    <x:t>TestAddAsset</x:t>
+  </x:si>
+  <x:si>
+    <x:t>902087</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestAddAssetCred</x:t>
+  </x:si>
+  <x:si>
+    <x:t>907838</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -376,7 +383,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B2"/>
+  <x:dimension ref="A1:A1"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -390,12 +397,48 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:B3"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:2">
+      <x:c r="A1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:2">
+      <x:c r="A3" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -1,50 +1,216 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <x:workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\My Drive\UiPath Orchestrator API Automation\UiPathAPIAutomation\UiPath Orchestrator API Automation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072FA710-F94B-4188-90FD-344B6FADDCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView firstSheet="0" activeTab="0"/>
+    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="SpecificFolderAsset" sheetId="2" r:id="rId2"/>
-    <x:sheet name="AllFolderAsset" sheetId="5" r:id="rId5"/>
+    <x:sheet name="QueueDefinitios" sheetId="2" r:id="rId1"/>
+    <x:sheet name="Processes" sheetId="5" r:id="rId2"/>
+    <x:sheet name="Jobs" sheetId="6" r:id="rId6"/>
   </x:sheets>
   <x:definedNames/>
-  <x:calcPr calcId="125725"/>
+  <x:calcPr calcId="0"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <x:si>
-    <x:t>TestAddAsset</x:t>
-  </x:si>
-  <x:si>
-    <x:t>902087</x:t>
-  </x:si>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <x:si>
     <x:t>Name</x:t>
   </x:si>
   <x:si>
+    <x:t>Key</x:t>
+  </x:si>
+  <x:si>
     <x:t>Id</x:t>
   </x:si>
   <x:si>
-    <x:t>TestAddAssetCred</x:t>
-  </x:si>
-  <x:si>
-    <x:t>907838</x:t>
+    <x:t>MaxRetry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8bb2838c-c43a-49ef-b695-1e7124aed90b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>889592</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tutorials</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ef6c8fb2-a5ee-43af-af98-0eabe2ccbb2d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>894804</x:t>
+  </x:si>
+  <x:si>
+    <x:t>API Queue</x:t>
+  </x:si>
+  <x:si>
+    <x:t>77e4421a-f891-4ce9-a9c6-36d668901019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>894808</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a905800d-eeec-4aa4-a22d-61f7ab95a40b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>da16b3eb-fb80-4886-9692-0079fd74a1c1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ExcelManipulation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>82ba4faa-4ddb-4537-974d-246a04709e12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Release</x:t>
+  </x:si>
+  <x:si>
+    <x:t>State</x:t>
+  </x:si>
+  <x:si>
+    <x:t>b29bd6a9-4d50-4127-80ec-8d082afaf5ea</x:t>
+  </x:si>
+  <x:si>
+    <x:t>311185307</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Faulted</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9ccefdeb-b815-4c8e-ac49-125266548b29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>311204754</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cbf353a5-17ac-4758-ac1d-a73cc1e9b20f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>311205821</x:t>
+  </x:si>
+  <x:si>
+    <x:t>d51318bc-60b3-4378-ab80-498fb1b61ed7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>311207035</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0518f308-c008-4093-aa79-f7a9bc0ed8fd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>311207945</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9338af96-12e5-4727-8099-9bddf21bdd77</x:t>
+  </x:si>
+  <x:si>
+    <x:t>317798737</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stopped</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52002204-fb66-44a6-a312-6f74e4391435</x:t>
+  </x:si>
+  <x:si>
+    <x:t>317799050</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4e0acd39-82da-46fb-ba29-df232befecaf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>317799294</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Successful</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6b6ea095-6213-4e3c-8a4b-a8c1e23bab4f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>319337348</x:t>
+  </x:si>
+  <x:si>
+    <x:t>772ca123-6a74-458b-b909-5052454ecb6b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>319337664</x:t>
+  </x:si>
+  <x:si>
+    <x:t>85fafc61-af13-476e-a3f4-1f2fc3c68acd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>319715803</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48f44f3c-9451-4ff3-a548-3843da5847b6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>319727513</x:t>
+  </x:si>
+  <x:si>
+    <x:t>add37ee5-ecde-4d8b-b91e-a4c7e27f90c4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>321692202</x:t>
+  </x:si>
+  <x:si>
+    <x:t>57daa863-043e-45ad-af39-b6dec56197b5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>321699274</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cb0041d9-0708-4260-930d-16c6d420b111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>321705507</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ec5b002e-0328-408a-9882-d2df50e301cc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>321709253</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f2973946-316b-422d-bd8f-5441727e56c1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>321712769</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Running</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="1">
+  <x:fonts count="1" x14ac:knownFonts="1">
     <x:font>
-      <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
@@ -60,38 +226,32 @@
     </x:fill>
   </x:fills>
   <x:borders count="1">
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </x:cellStyleXfs>
   <x:cellXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </x:ext>
+  </x:extLst>
 </x:styleSheet>
 </file>
 
@@ -379,22 +539,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A1"/>
+  <x:dimension ref="A1:D4"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <x:sheetData>
-    <x:row r="1" spans="1:2">
+    <x:row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
         <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <x:c r="A2" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <x:c r="A3" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <x:c r="A4" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>14</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -407,38 +615,318 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0100-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:B4"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <x:c r="A1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <x:c r="A2" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <x:c r="A3" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <x:c r="A4" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B3"/>
+  <x:dimension ref="A1:D18"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:2">
+    <x:row r="1" spans="1:4">
       <x:c r="A1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B1" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:2">
+      <x:c r="D1" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:4">
       <x:c r="A2" s="0" t="s">
-        <x:v>0</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:2">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4">
       <x:c r="A3" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:4">
+      <x:c r="A4" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
+      <x:c r="A5" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4">
+      <x:c r="A6" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4">
+      <x:c r="A7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:4">
+      <x:c r="A8" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:4">
+      <x:c r="A9" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4">
+      <x:c r="A10" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4">
+      <x:c r="A11" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:4">
+      <x:c r="A12" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:4">
+      <x:c r="A13" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4">
+      <x:c r="A14" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:4">
+      <x:c r="A15" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:4">
+      <x:c r="A16" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:4">
+      <x:c r="A17" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:4">
+      <x:c r="A18" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>58</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
